--- a/Floor_3/Right_wing.xlsx
+++ b/Floor_3/Right_wing.xlsx
@@ -419,7 +419,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:L32"/>
+  <dimension ref="A1:K32"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -445,42 +445,37 @@
       </c>
       <c r="E1" t="inlineStr">
         <is>
-          <t>313</t>
+          <t>315</t>
         </is>
       </c>
       <c r="F1" t="inlineStr">
         <is>
-          <t>314</t>
+          <t>316</t>
         </is>
       </c>
       <c r="G1" t="inlineStr">
         <is>
-          <t>315</t>
+          <t>317</t>
         </is>
       </c>
       <c r="H1" t="inlineStr">
         <is>
-          <t>316</t>
+          <t>318</t>
         </is>
       </c>
       <c r="I1" t="inlineStr">
         <is>
-          <t>317</t>
+          <t>319</t>
         </is>
       </c>
       <c r="J1" t="inlineStr">
         <is>
-          <t>318</t>
+          <t>320</t>
         </is>
       </c>
       <c r="K1" t="inlineStr">
         <is>
-          <t>319</t>
-        </is>
-      </c>
-      <c r="L1" t="inlineStr">
-        <is>
-          <t>320</t>
+          <t>305, 313, 314</t>
         </is>
       </c>
     </row>
@@ -490,7 +485,7 @@
           <t>1.10</t>
         </is>
       </c>
-      <c r="B2" s="1" t="n"/>
+      <c r="C2" s="1" t="n"/>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -498,7 +493,7 @@
           <t>2.10</t>
         </is>
       </c>
-      <c r="B3" s="1" t="n"/>
+      <c r="D3" s="1" t="n"/>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -506,7 +501,7 @@
           <t>3.10</t>
         </is>
       </c>
-      <c r="B4" s="1" t="n"/>
+      <c r="E4" s="1" t="n"/>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -514,7 +509,7 @@
           <t>4.10</t>
         </is>
       </c>
-      <c r="B5" s="1" t="n"/>
+      <c r="F5" s="1" t="n"/>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -522,7 +517,7 @@
           <t>5.10</t>
         </is>
       </c>
-      <c r="B6" s="1" t="n"/>
+      <c r="G6" s="1" t="n"/>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
@@ -530,7 +525,7 @@
           <t>6.10</t>
         </is>
       </c>
-      <c r="B7" s="1" t="n"/>
+      <c r="H7" s="1" t="n"/>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
@@ -538,7 +533,7 @@
           <t>7.10</t>
         </is>
       </c>
-      <c r="B8" s="1" t="n"/>
+      <c r="I8" s="1" t="n"/>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
@@ -546,7 +541,7 @@
           <t>8.10</t>
         </is>
       </c>
-      <c r="B9" s="1" t="n"/>
+      <c r="J9" s="1" t="n"/>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
@@ -554,7 +549,7 @@
           <t>9.10</t>
         </is>
       </c>
-      <c r="B10" s="1" t="n"/>
+      <c r="K10" s="1" t="n"/>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
@@ -570,7 +565,7 @@
           <t>11.10</t>
         </is>
       </c>
-      <c r="B12" s="1" t="n"/>
+      <c r="C12" s="1" t="n"/>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
@@ -578,7 +573,7 @@
           <t>12.10</t>
         </is>
       </c>
-      <c r="B13" s="1" t="n"/>
+      <c r="D13" s="1" t="n"/>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
@@ -586,7 +581,7 @@
           <t>13.10</t>
         </is>
       </c>
-      <c r="B14" s="1" t="n"/>
+      <c r="E14" s="1" t="n"/>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
@@ -594,7 +589,7 @@
           <t>14.10</t>
         </is>
       </c>
-      <c r="B15" s="1" t="n"/>
+      <c r="F15" s="1" t="n"/>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
@@ -602,7 +597,7 @@
           <t>15.10</t>
         </is>
       </c>
-      <c r="B16" s="1" t="n"/>
+      <c r="G16" s="1" t="n"/>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
@@ -610,7 +605,7 @@
           <t>16.10</t>
         </is>
       </c>
-      <c r="B17" s="1" t="n"/>
+      <c r="H17" s="1" t="n"/>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
@@ -618,7 +613,7 @@
           <t>17.10</t>
         </is>
       </c>
-      <c r="B18" s="1" t="n"/>
+      <c r="I18" s="1" t="n"/>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
@@ -626,7 +621,7 @@
           <t>18.10</t>
         </is>
       </c>
-      <c r="B19" s="1" t="n"/>
+      <c r="J19" s="1" t="n"/>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
@@ -634,7 +629,7 @@
           <t>19.10</t>
         </is>
       </c>
-      <c r="B20" s="1" t="n"/>
+      <c r="K20" s="1" t="n"/>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -650,7 +645,7 @@
           <t>21.10</t>
         </is>
       </c>
-      <c r="B22" s="1" t="n"/>
+      <c r="C22" s="1" t="n"/>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
@@ -658,7 +653,7 @@
           <t>22.10</t>
         </is>
       </c>
-      <c r="B23" s="1" t="n"/>
+      <c r="D23" s="1" t="n"/>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
@@ -666,7 +661,7 @@
           <t>23.10</t>
         </is>
       </c>
-      <c r="B24" s="1" t="n"/>
+      <c r="E24" s="1" t="n"/>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
@@ -674,7 +669,7 @@
           <t>24.10</t>
         </is>
       </c>
-      <c r="B25" s="1" t="n"/>
+      <c r="F25" s="1" t="n"/>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
@@ -682,7 +677,7 @@
           <t>25.10</t>
         </is>
       </c>
-      <c r="B26" s="1" t="n"/>
+      <c r="G26" s="1" t="n"/>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
@@ -690,7 +685,7 @@
           <t>26.10</t>
         </is>
       </c>
-      <c r="B27" s="1" t="n"/>
+      <c r="H27" s="1" t="n"/>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
@@ -698,7 +693,7 @@
           <t>27.10</t>
         </is>
       </c>
-      <c r="B28" s="1" t="n"/>
+      <c r="I28" s="1" t="n"/>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
@@ -706,7 +701,7 @@
           <t>28.10</t>
         </is>
       </c>
-      <c r="B29" s="1" t="n"/>
+      <c r="J29" s="1" t="n"/>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
@@ -714,7 +709,7 @@
           <t>29.10</t>
         </is>
       </c>
-      <c r="B30" s="1" t="n"/>
+      <c r="K30" s="1" t="n"/>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
@@ -730,7 +725,7 @@
           <t>31.10</t>
         </is>
       </c>
-      <c r="B32" s="1" t="n"/>
+      <c r="C32" s="1" t="n"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
